--- a/2024.11.08 Where will the sorting hat put you.xlsx
+++ b/2024.11.08 Where will the sorting hat put you.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/D7ABED27-28FA-4041-B9E7-7B370C63681A/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Python\Puzzles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068532D6-BA4E-4C4F-ADF8-94CCF72BA8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C33A4-CC02-4A2C-80C6-4609BAA03CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sum</t>
   </si>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -147,22 +147,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BB50C0-D42B-0F2B-5644-242B17E50F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82105F2D-AC9A-6C44-0533-1E896F21932A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -171,20 +171,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="36101" b="19141"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1862667"/>
-          <a:ext cx="6731000" cy="2328334"/>
+          <a:off x="311150" y="1974850"/>
+          <a:ext cx="6867525" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -197,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,21 +497,21 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.27734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.609375" style="1"/>
+    <col min="1" max="1" width="16.26953125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -540,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,7 +580,7 @@
         <v>0.20001220703125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,7 +595,7 @@
         <v>0.75</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:J4" si="1">0.75*D4+D3</f>
+        <f t="shared" ref="E4:I4" si="1">0.75*D4+D3</f>
         <v>0.8125</v>
       </c>
       <c r="F4" s="3">
@@ -618,7 +619,7 @@
         <v>0.79998779296875</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:K5" si="3">SUM(C3:C4)</f>
+        <f t="shared" ref="C5:J5" si="3">SUM(C3:C4)</f>
         <v>1</v>
       </c>
       <c r="D5" s="4">
@@ -659,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
